--- a/user_upload_test_cases.xlsx
+++ b/user_upload_test_cases.xlsx
@@ -27,188 +27,182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="262">
+  <si>
+    <t>email</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
-    <t>type</t>
+    <t>user1@hotmail.com</t>
   </si>
   <si>
     <t>UserPpbTe</t>
   </si>
   <si>
-    <t>user1@hotmail.com</t>
-  </si>
-  <si>
     <t>8mEW033b</t>
   </si>
   <si>
-    <t>USER</t>
+    <t>user2@example.org</t>
   </si>
   <si>
     <t>UserGBUEo</t>
   </si>
   <si>
-    <t>user2@example.org</t>
-  </si>
-  <si>
     <t>Z2tBbVC6</t>
   </si>
   <si>
+    <t>user3@test.com</t>
+  </si>
+  <si>
     <t>UsergsqBQ</t>
   </si>
   <si>
-    <t>user3@test.com</t>
-  </si>
-  <si>
     <t>ApgLdfHk</t>
   </si>
   <si>
+    <t>user4@gmail.com</t>
+  </si>
+  <si>
     <t>UserKmzia</t>
   </si>
   <si>
-    <t>user4@gmail.com</t>
-  </si>
-  <si>
     <t>NEnlQnky</t>
   </si>
   <si>
+    <t>user5@gmail.com</t>
+  </si>
+  <si>
     <t>UserAnSNs</t>
   </si>
   <si>
-    <t>user5@gmail.com</t>
-  </si>
-  <si>
     <t>NbMPeQlz</t>
   </si>
   <si>
+    <t>user6@gmail.com</t>
+  </si>
+  <si>
     <t>UserEyhDz</t>
   </si>
   <si>
-    <t>user6@gmail.com</t>
-  </si>
-  <si>
     <t>aILya3c5</t>
   </si>
   <si>
+    <t>user7@test.com</t>
+  </si>
+  <si>
     <t>UserrSoih</t>
   </si>
   <si>
-    <t>user7@test.com</t>
-  </si>
-  <si>
     <t>6lKe3gWw</t>
   </si>
   <si>
+    <t>user8@gmail.com</t>
+  </si>
+  <si>
     <t>UserwVeQp</t>
   </si>
   <si>
-    <t>user8@gmail.com</t>
-  </si>
-  <si>
     <t>zIdMGBLO</t>
   </si>
   <si>
+    <t>user9@test.com</t>
+  </si>
+  <si>
     <t>UserkaUjV</t>
   </si>
   <si>
-    <t>user9@test.com</t>
-  </si>
-  <si>
     <t>meBK8Bou</t>
   </si>
   <si>
+    <t>invalid-email</t>
+  </si>
+  <si>
     <t>UserhkqWC</t>
   </si>
   <si>
-    <t>invalid-email</t>
-  </si>
-  <si>
     <t>kJ4WRoKL</t>
   </si>
   <si>
+    <t>user11@test.com</t>
+  </si>
+  <si>
     <t>UserFKQNI</t>
   </si>
   <si>
-    <t>user11@test.com</t>
-  </si>
-  <si>
     <t>nga82BL8</t>
   </si>
   <si>
+    <t>user12@example.org</t>
+  </si>
+  <si>
     <t>UsernntmB</t>
   </si>
   <si>
-    <t>user12@example.org</t>
-  </si>
-  <si>
     <t>XvAPOjUT</t>
   </si>
   <si>
+    <t>user13@hotmail.com</t>
+  </si>
+  <si>
     <t>UserwucHD</t>
   </si>
   <si>
-    <t>user13@hotmail.com</t>
-  </si>
-  <si>
     <t>5mOZp1n0</t>
   </si>
   <si>
+    <t>user14@hotmail.com</t>
+  </si>
+  <si>
     <t>UserKdQZO</t>
   </si>
   <si>
-    <t>user14@hotmail.com</t>
-  </si>
-  <si>
     <t>KQ1di0z2</t>
   </si>
   <si>
+    <t>user15@gmail.com</t>
+  </si>
+  <si>
     <t>UserGbcBu</t>
   </si>
   <si>
-    <t>user15@gmail.com</t>
+    <t>user16@test.com</t>
   </si>
   <si>
     <t>UsereKdEG</t>
   </si>
   <si>
-    <t>user16@test.com</t>
-  </si>
-  <si>
     <t>b5eAD2ot</t>
   </si>
   <si>
+    <t>user17@hotmail.com</t>
+  </si>
+  <si>
     <t>UserDJOYN</t>
   </si>
   <si>
-    <t>user17@hotmail.com</t>
-  </si>
-  <si>
     <t>nHKyiOYO</t>
   </si>
   <si>
+    <t>user18@test.com</t>
+  </si>
+  <si>
     <t>UserKnrXT</t>
   </si>
   <si>
-    <t>user18@test.com</t>
-  </si>
-  <si>
     <t>Xgos3i8A</t>
   </si>
   <si>
+    <t>user19@example.org</t>
+  </si>
+  <si>
     <t>UserOzFRd</t>
   </si>
   <si>
-    <t>user19@example.org</t>
-  </si>
-  <si>
     <t>2cYCMX1Q</t>
   </si>
   <si>
@@ -218,84 +212,84 @@
     <t>idjzOMEf</t>
   </si>
   <si>
+    <t>user21@example.org</t>
+  </si>
+  <si>
     <t>UserOczkk</t>
   </si>
   <si>
-    <t>user21@example.org</t>
-  </si>
-  <si>
     <t>2jDKB9eo</t>
   </si>
   <si>
+    <t>user22@example.org</t>
+  </si>
+  <si>
     <t>Userxwymq</t>
   </si>
   <si>
-    <t>user22@example.org</t>
-  </si>
-  <si>
     <t>bP2KaAXC</t>
   </si>
   <si>
+    <t>user23@test.com</t>
+  </si>
+  <si>
     <t>UserfBpMW</t>
   </si>
   <si>
-    <t>user23@test.com</t>
-  </si>
-  <si>
     <t>KIaxqbw0</t>
   </si>
   <si>
+    <t>user24@gmail.com</t>
+  </si>
+  <si>
     <t>UserhcEdy</t>
   </si>
   <si>
-    <t>user24@gmail.com</t>
-  </si>
-  <si>
     <t>Vo2gVunW</t>
   </si>
   <si>
+    <t>user25@test.com</t>
+  </si>
+  <si>
     <t>UserWfZdR</t>
   </si>
   <si>
-    <t>user25@test.com</t>
-  </si>
-  <si>
     <t>7N0CJvjZ</t>
   </si>
   <si>
+    <t>user26@example.org</t>
+  </si>
+  <si>
     <t>UserczJid</t>
   </si>
   <si>
-    <t>user26@example.org</t>
-  </si>
-  <si>
     <t>0BDovHRt</t>
   </si>
   <si>
+    <t>user27@hotmail.com</t>
+  </si>
+  <si>
     <t>UserxemBH</t>
   </si>
   <si>
-    <t>user27@hotmail.com</t>
-  </si>
-  <si>
     <t>kl7L4xKP</t>
   </si>
   <si>
+    <t>user28@example.org</t>
+  </si>
+  <si>
     <t>UserSuarc</t>
   </si>
   <si>
-    <t>user28@example.org</t>
-  </si>
-  <si>
     <t>ti8EMn6T</t>
   </si>
   <si>
+    <t>user29@gmail.com</t>
+  </si>
+  <si>
     <t>UserJCzAl</t>
   </si>
   <si>
-    <t>user29@gmail.com</t>
-  </si>
-  <si>
     <t>Pfufv45h</t>
   </si>
   <si>
@@ -305,84 +299,84 @@
     <t>NVDiWHNc</t>
   </si>
   <si>
+    <t>user31@example.org</t>
+  </si>
+  <si>
     <t>UserQmwPV</t>
   </si>
   <si>
-    <t>user31@example.org</t>
-  </si>
-  <si>
     <t>fdqskMO0</t>
   </si>
   <si>
+    <t>user32@gmail.com</t>
+  </si>
+  <si>
     <t>UserMzOgR</t>
   </si>
   <si>
-    <t>user32@gmail.com</t>
-  </si>
-  <si>
     <t>tO4j84Ox</t>
   </si>
   <si>
+    <t>user33@test.com</t>
+  </si>
+  <si>
     <t>UserCaOiH</t>
   </si>
   <si>
-    <t>user33@test.com</t>
-  </si>
-  <si>
     <t>P6JTf4Wd</t>
   </si>
   <si>
+    <t>user34@test.com</t>
+  </si>
+  <si>
     <t>UserJxrio</t>
   </si>
   <si>
-    <t>user34@test.com</t>
-  </si>
-  <si>
     <t>qXN6fZQg</t>
   </si>
   <si>
+    <t>user35@example.org</t>
+  </si>
+  <si>
     <t>UserEGxTX</t>
   </si>
   <si>
-    <t>user35@example.org</t>
-  </si>
-  <si>
     <t>X3mg0HNO</t>
   </si>
   <si>
+    <t>user36@example.org</t>
+  </si>
+  <si>
     <t>UserLIQYg</t>
   </si>
   <si>
-    <t>user36@example.org</t>
-  </si>
-  <si>
     <t>ZNktnEqj</t>
   </si>
   <si>
+    <t>user37@gmail.com</t>
+  </si>
+  <si>
     <t>UserBBgVC</t>
   </si>
   <si>
-    <t>user37@gmail.com</t>
-  </si>
-  <si>
     <t>pedc2Sxd</t>
   </si>
   <si>
+    <t>user38@hotmail.com</t>
+  </si>
+  <si>
     <t>UserVsOkB</t>
   </si>
   <si>
-    <t>user38@hotmail.com</t>
-  </si>
-  <si>
     <t>ZuCaOOgO</t>
   </si>
   <si>
+    <t>user39@hotmail.com</t>
+  </si>
+  <si>
     <t>UserXkksZ</t>
   </si>
   <si>
-    <t>user39@hotmail.com</t>
-  </si>
-  <si>
     <t>TBkfJyQI</t>
   </si>
   <si>
@@ -392,81 +386,81 @@
     <t>A6bklwZr</t>
   </si>
   <si>
+    <t>user41@test.com</t>
+  </si>
+  <si>
     <t>UsertVcUz</t>
   </si>
   <si>
-    <t>user41@test.com</t>
-  </si>
-  <si>
     <t>OIZorwvU</t>
   </si>
   <si>
+    <t>user42@test.com</t>
+  </si>
+  <si>
     <t>UseroAHFs</t>
   </si>
   <si>
-    <t>user42@test.com</t>
-  </si>
-  <si>
     <t>DI4Gh5ld</t>
   </si>
   <si>
+    <t>user43@gmail.com</t>
+  </si>
+  <si>
     <t>UserEaOxo</t>
   </si>
   <si>
-    <t>user43@gmail.com</t>
-  </si>
-  <si>
     <t>UiFeqEeN</t>
   </si>
   <si>
+    <t>user44@gmail.com</t>
+  </si>
+  <si>
     <t>UserlJZCK</t>
   </si>
   <si>
-    <t>user44@gmail.com</t>
-  </si>
-  <si>
     <t>4LeUe21B</t>
   </si>
   <si>
+    <t>user45@gmail.com</t>
+  </si>
+  <si>
     <t>UserGadZb</t>
   </si>
   <si>
-    <t>user45@gmail.com</t>
+    <t>user46@test.com</t>
   </si>
   <si>
     <t>UserQdpuz</t>
   </si>
   <si>
-    <t>user46@test.com</t>
-  </si>
-  <si>
     <t>7juHUVwq</t>
   </si>
   <si>
+    <t>user47@hotmail.com</t>
+  </si>
+  <si>
     <t>UserZCajh</t>
   </si>
   <si>
-    <t>user47@hotmail.com</t>
-  </si>
-  <si>
     <t>5JjisnYb</t>
   </si>
   <si>
+    <t>user48@example.org</t>
+  </si>
+  <si>
     <t>UserSvvGv</t>
   </si>
   <si>
-    <t>user48@example.org</t>
-  </si>
-  <si>
     <t>q2FYjFQc</t>
   </si>
   <si>
+    <t>user49@hotmail.com</t>
+  </si>
+  <si>
     <t>UserhbViN</t>
   </si>
   <si>
-    <t>user49@hotmail.com</t>
-  </si>
-  <si>
     <t>AydbMiMu</t>
   </si>
   <si>
@@ -476,84 +470,84 @@
     <t>cG898E2t</t>
   </si>
   <si>
+    <t>user51@hotmail.com</t>
+  </si>
+  <si>
     <t>UserkSNPm</t>
   </si>
   <si>
-    <t>user51@hotmail.com</t>
-  </si>
-  <si>
     <t>sIFoXeiw</t>
   </si>
   <si>
+    <t>user52@gmail.com</t>
+  </si>
+  <si>
     <t>UserPuRun</t>
   </si>
   <si>
-    <t>user52@gmail.com</t>
-  </si>
-  <si>
     <t>hHTU3boi</t>
   </si>
   <si>
+    <t>user53@hotmail.com</t>
+  </si>
+  <si>
     <t>UsergmMdm</t>
   </si>
   <si>
-    <t>user53@hotmail.com</t>
-  </si>
-  <si>
     <t>xB4Tcw0T</t>
   </si>
   <si>
+    <t>user54@test.com</t>
+  </si>
+  <si>
     <t>UsercuVJQ</t>
   </si>
   <si>
-    <t>user54@test.com</t>
-  </si>
-  <si>
     <t>ntNIjhmA</t>
   </si>
   <si>
+    <t>user55@example.org</t>
+  </si>
+  <si>
     <t>UserQmduz</t>
   </si>
   <si>
-    <t>user55@example.org</t>
-  </si>
-  <si>
     <t>WkcSacp9</t>
   </si>
   <si>
+    <t>user56@test.com</t>
+  </si>
+  <si>
     <t>UserpXhJH</t>
   </si>
   <si>
-    <t>user56@test.com</t>
-  </si>
-  <si>
     <t>LCHzSszK</t>
   </si>
   <si>
+    <t>user57@hotmail.com</t>
+  </si>
+  <si>
     <t>UserKiPCx</t>
   </si>
   <si>
-    <t>user57@hotmail.com</t>
-  </si>
-  <si>
     <t>Mntqu4i8</t>
   </si>
   <si>
+    <t>user58@example.org</t>
+  </si>
+  <si>
     <t>UserCTtbS</t>
   </si>
   <si>
-    <t>user58@example.org</t>
-  </si>
-  <si>
     <t>0ygffW6V</t>
   </si>
   <si>
+    <t>user59@gmail.com</t>
+  </si>
+  <si>
     <t>UserrulmY</t>
   </si>
   <si>
-    <t>user59@gmail.com</t>
-  </si>
-  <si>
     <t>U7oyblJJ</t>
   </si>
   <si>
@@ -563,84 +557,84 @@
     <t>6r0z1s9e</t>
   </si>
   <si>
+    <t>user61@hotmail.com</t>
+  </si>
+  <si>
     <t>UseruQabS</t>
   </si>
   <si>
-    <t>user61@hotmail.com</t>
-  </si>
-  <si>
     <t>0niyEviT</t>
   </si>
   <si>
+    <t>user62@example.org</t>
+  </si>
+  <si>
     <t>UserWVZEY</t>
   </si>
   <si>
-    <t>user62@example.org</t>
-  </si>
-  <si>
     <t>mpQswYnT</t>
   </si>
   <si>
+    <t>user63@test.com</t>
+  </si>
+  <si>
     <t>UserpLQio</t>
   </si>
   <si>
-    <t>user63@test.com</t>
-  </si>
-  <si>
     <t>4VUVsNYb</t>
   </si>
   <si>
+    <t>user64@hotmail.com</t>
+  </si>
+  <si>
     <t>Userimghf</t>
   </si>
   <si>
-    <t>user64@hotmail.com</t>
-  </si>
-  <si>
     <t>gFTIFxmw</t>
   </si>
   <si>
+    <t>user65@test.com</t>
+  </si>
+  <si>
     <t>UserPXDZJ</t>
   </si>
   <si>
-    <t>user65@test.com</t>
-  </si>
-  <si>
     <t>KHORPwWP</t>
   </si>
   <si>
+    <t>user66@gmail.com</t>
+  </si>
+  <si>
     <t>UseryXxIk</t>
   </si>
   <si>
-    <t>user66@gmail.com</t>
-  </si>
-  <si>
     <t>vehidp22</t>
   </si>
   <si>
+    <t>user67@hotmail.com</t>
+  </si>
+  <si>
     <t>UserJfIVQ</t>
   </si>
   <si>
-    <t>user67@hotmail.com</t>
-  </si>
-  <si>
     <t>RuPv5YDN</t>
   </si>
   <si>
+    <t>user68@example.org</t>
+  </si>
+  <si>
     <t>UsertoxOD</t>
   </si>
   <si>
-    <t>user68@example.org</t>
-  </si>
-  <si>
     <t>RFX503iS</t>
   </si>
   <si>
+    <t>user69@example.org</t>
+  </si>
+  <si>
     <t>UserzUtmm</t>
   </si>
   <si>
-    <t>user69@example.org</t>
-  </si>
-  <si>
     <t>IaFadzk3</t>
   </si>
   <si>
@@ -650,81 +644,81 @@
     <t>gi4FMYkH</t>
   </si>
   <si>
+    <t>user71@example.org</t>
+  </si>
+  <si>
     <t>UserhLgCf</t>
   </si>
   <si>
-    <t>user71@example.org</t>
-  </si>
-  <si>
     <t>JXWK5IYk</t>
   </si>
   <si>
+    <t>user72@example.org</t>
+  </si>
+  <si>
     <t>UserHZKVT</t>
   </si>
   <si>
-    <t>user72@example.org</t>
-  </si>
-  <si>
     <t>JdndCjyi</t>
   </si>
   <si>
+    <t>user73@hotmail.com</t>
+  </si>
+  <si>
     <t>UserFVRuC</t>
   </si>
   <si>
-    <t>user73@hotmail.com</t>
-  </si>
-  <si>
     <t>QEvfDyHx</t>
   </si>
   <si>
+    <t>user74@example.org</t>
+  </si>
+  <si>
     <t>UserwkLNt</t>
   </si>
   <si>
-    <t>user74@example.org</t>
-  </si>
-  <si>
     <t>1mkmNMpO</t>
   </si>
   <si>
+    <t>user75@gmail.com</t>
+  </si>
+  <si>
     <t>UserpfrVL</t>
   </si>
   <si>
-    <t>user75@gmail.com</t>
+    <t>user76@test.com</t>
   </si>
   <si>
     <t>UserAwnJj</t>
   </si>
   <si>
-    <t>user76@test.com</t>
-  </si>
-  <si>
     <t>AcEKfWp5</t>
   </si>
   <si>
+    <t>user77@test.com</t>
+  </si>
+  <si>
     <t>UserQwRNV</t>
   </si>
   <si>
-    <t>user77@test.com</t>
-  </si>
-  <si>
     <t>myMcQZPY</t>
   </si>
   <si>
+    <t>user78@test.com</t>
+  </si>
+  <si>
     <t>UserDegII</t>
   </si>
   <si>
-    <t>user78@test.com</t>
-  </si>
-  <si>
     <t>WNSFMCCJ</t>
   </si>
   <si>
+    <t>user79@example.org</t>
+  </si>
+  <si>
     <t>UserequrS</t>
   </si>
   <si>
-    <t>user79@example.org</t>
-  </si>
-  <si>
     <t>gnF0Gfhl</t>
   </si>
   <si>
@@ -734,84 +728,84 @@
     <t>mKZHJmej</t>
   </si>
   <si>
+    <t>user81@example.org</t>
+  </si>
+  <si>
     <t>Uservjebq</t>
   </si>
   <si>
-    <t>user81@example.org</t>
-  </si>
-  <si>
     <t>KJE1YFFY</t>
   </si>
   <si>
+    <t>user82@test.com</t>
+  </si>
+  <si>
     <t>UserAJPZh</t>
   </si>
   <si>
-    <t>user82@test.com</t>
-  </si>
-  <si>
     <t>aYCddL42</t>
   </si>
   <si>
+    <t>user83@gmail.com</t>
+  </si>
+  <si>
     <t>UseroElWX</t>
   </si>
   <si>
-    <t>user83@gmail.com</t>
-  </si>
-  <si>
     <t>E2KTjzVV</t>
   </si>
   <si>
+    <t>user84@example.org</t>
+  </si>
+  <si>
     <t>UserFqbCI</t>
   </si>
   <si>
-    <t>user84@example.org</t>
-  </si>
-  <si>
     <t>DKBFL1bS</t>
   </si>
   <si>
+    <t>user85@example.org</t>
+  </si>
+  <si>
     <t>UserArRWl</t>
   </si>
   <si>
-    <t>user85@example.org</t>
-  </si>
-  <si>
     <t>EsyLUcfP</t>
   </si>
   <si>
+    <t>user86@gmail.com</t>
+  </si>
+  <si>
     <t>UseryaTxW</t>
   </si>
   <si>
-    <t>user86@gmail.com</t>
-  </si>
-  <si>
     <t>fOHr5z7G</t>
   </si>
   <si>
+    <t>user87@example.org</t>
+  </si>
+  <si>
     <t>UserYcIyl</t>
   </si>
   <si>
-    <t>user87@example.org</t>
-  </si>
-  <si>
     <t>nVvTOjTG</t>
   </si>
   <si>
+    <t>user88@hotmail.com</t>
+  </si>
+  <si>
     <t>UserBhMuC</t>
   </si>
   <si>
-    <t>user88@hotmail.com</t>
-  </si>
-  <si>
     <t>W33Arx9s</t>
   </si>
   <si>
+    <t>user89@test.com</t>
+  </si>
+  <si>
     <t>UsermVKxS</t>
   </si>
   <si>
-    <t>user89@test.com</t>
-  </si>
-  <si>
     <t>rPo0Cd4M</t>
   </si>
   <si>
@@ -819,96 +813,6 @@
   </si>
   <si>
     <t>WORw8Bw9</t>
-  </si>
-  <si>
-    <t>UserNivqp</t>
-  </si>
-  <si>
-    <t>user91@hotmail.com</t>
-  </si>
-  <si>
-    <t>MfHAT1se</t>
-  </si>
-  <si>
-    <t>UserxNYFx</t>
-  </si>
-  <si>
-    <t>user92@gmail.com</t>
-  </si>
-  <si>
-    <t>JQDlEhjP</t>
-  </si>
-  <si>
-    <t>UserROhyt</t>
-  </si>
-  <si>
-    <t>user93@example.org</t>
-  </si>
-  <si>
-    <t>5owEESX8</t>
-  </si>
-  <si>
-    <t>UseroJGmc</t>
-  </si>
-  <si>
-    <t>user94@gmail.com</t>
-  </si>
-  <si>
-    <t>Uk9VGaOB</t>
-  </si>
-  <si>
-    <t>UserlLHMt</t>
-  </si>
-  <si>
-    <t>user95@hotmail.com</t>
-  </si>
-  <si>
-    <t>AZwXpMcg</t>
-  </si>
-  <si>
-    <t>UserajwnB</t>
-  </si>
-  <si>
-    <t>user96@gmail.com</t>
-  </si>
-  <si>
-    <t>OPmAEalV</t>
-  </si>
-  <si>
-    <t>UserFreIV</t>
-  </si>
-  <si>
-    <t>user97@hotmail.com</t>
-  </si>
-  <si>
-    <t>UoDmFtM3</t>
-  </si>
-  <si>
-    <t>UserijJmD</t>
-  </si>
-  <si>
-    <t>user98@test.com</t>
-  </si>
-  <si>
-    <t>6dZdYhjZ</t>
-  </si>
-  <si>
-    <t>UserawADg</t>
-  </si>
-  <si>
-    <t>user99@gmail.com</t>
-  </si>
-  <si>
-    <t>5vv9l5Cg</t>
-  </si>
-  <si>
-    <t>UserrOvbP</t>
-  </si>
-  <si>
-    <t>invalidd-email</t>
-  </si>
-  <si>
-    <t>5AQRU6Sy</t>
   </si>
 </sst>
 </file>
@@ -1880,21 +1784,21 @@
   <sheetPr/>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="21.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="21.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="13.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1904,1423 +1808,1119 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
         <v>84</v>
       </c>
-      <c r="B29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
         <v>87</v>
       </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
         <v>92</v>
       </c>
-      <c r="B32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
         <v>98</v>
       </c>
-      <c r="B34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
         <v>107</v>
       </c>
-      <c r="B37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
         <v>110</v>
       </c>
-      <c r="B38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
         <v>121</v>
       </c>
-      <c r="B42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
         <v>124</v>
       </c>
-      <c r="B43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
         <v>127</v>
       </c>
-      <c r="B44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s">
         <v>130</v>
       </c>
-      <c r="B45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
         <v>135</v>
       </c>
-      <c r="B47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" t="s">
         <v>138</v>
       </c>
-      <c r="B48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" t="s">
         <v>141</v>
       </c>
-      <c r="B49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" t="s">
         <v>144</v>
       </c>
-      <c r="B50" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" t="s">
         <v>149</v>
       </c>
-      <c r="B52" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" t="s">
         <v>152</v>
       </c>
-      <c r="B53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" t="s">
         <v>155</v>
       </c>
-      <c r="B54" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" t="s">
         <v>158</v>
       </c>
-      <c r="B55" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" t="s">
-        <v>160</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="s">
         <v>161</v>
       </c>
-      <c r="B56" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" t="s">
-        <v>163</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" t="s">
         <v>164</v>
       </c>
-      <c r="B57" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" t="s">
-        <v>166</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" t="s">
         <v>167</v>
       </c>
-      <c r="B58" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" t="s">
         <v>170</v>
       </c>
-      <c r="B59" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" t="s">
         <v>173</v>
       </c>
-      <c r="B60" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" t="s">
         <v>178</v>
       </c>
-      <c r="B62" t="s">
-        <v>179</v>
-      </c>
-      <c r="C62" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" t="s">
         <v>181</v>
       </c>
-      <c r="B63" t="s">
-        <v>182</v>
-      </c>
-      <c r="C63" t="s">
-        <v>183</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" t="s">
         <v>184</v>
       </c>
-      <c r="B64" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" t="s">
-        <v>186</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" t="s">
         <v>187</v>
       </c>
-      <c r="B65" t="s">
-        <v>188</v>
-      </c>
-      <c r="C65" t="s">
-        <v>189</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" t="s">
         <v>190</v>
       </c>
-      <c r="B66" t="s">
-        <v>191</v>
-      </c>
-      <c r="C66" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" t="s">
         <v>193</v>
       </c>
-      <c r="B67" t="s">
-        <v>194</v>
-      </c>
-      <c r="C67" t="s">
-        <v>195</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" t="s">
         <v>196</v>
       </c>
-      <c r="B68" t="s">
-        <v>197</v>
-      </c>
-      <c r="C68" t="s">
-        <v>198</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" t="s">
         <v>199</v>
       </c>
-      <c r="B69" t="s">
-        <v>200</v>
-      </c>
-      <c r="C69" t="s">
-        <v>201</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
         <v>202</v>
       </c>
-      <c r="B70" t="s">
-        <v>203</v>
-      </c>
-      <c r="C70" t="s">
-        <v>204</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" t="s">
         <v>207</v>
       </c>
-      <c r="B72" t="s">
-        <v>208</v>
-      </c>
-      <c r="C72" t="s">
-        <v>209</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" t="s">
         <v>210</v>
       </c>
-      <c r="B73" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" t="s">
-        <v>212</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" t="s">
         <v>213</v>
       </c>
-      <c r="B74" t="s">
-        <v>214</v>
-      </c>
-      <c r="C74" t="s">
-        <v>215</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" t="s">
         <v>216</v>
       </c>
-      <c r="B75" t="s">
-        <v>217</v>
-      </c>
-      <c r="C75" t="s">
-        <v>218</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" t="s">
         <v>221</v>
       </c>
-      <c r="B77" t="s">
-        <v>222</v>
-      </c>
-      <c r="C77" t="s">
-        <v>223</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
+        <v>222</v>
+      </c>
+      <c r="B78" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" t="s">
         <v>224</v>
       </c>
-      <c r="B78" t="s">
-        <v>225</v>
-      </c>
-      <c r="C78" t="s">
-        <v>226</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
+        <v>225</v>
+      </c>
+      <c r="B79" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" t="s">
         <v>227</v>
       </c>
-      <c r="B79" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" t="s">
-        <v>229</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" t="s">
         <v>230</v>
       </c>
-      <c r="B80" t="s">
-        <v>231</v>
-      </c>
-      <c r="C80" t="s">
-        <v>232</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="C81" t="s">
-        <v>234</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
+        <v>233</v>
+      </c>
+      <c r="B82" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" t="s">
         <v>235</v>
       </c>
-      <c r="B82" t="s">
-        <v>236</v>
-      </c>
-      <c r="C82" t="s">
-        <v>237</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" t="s">
         <v>238</v>
       </c>
-      <c r="B83" t="s">
-        <v>239</v>
-      </c>
-      <c r="C83" t="s">
-        <v>240</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
+        <v>239</v>
+      </c>
+      <c r="B84" t="s">
+        <v>240</v>
+      </c>
+      <c r="C84" t="s">
         <v>241</v>
       </c>
-      <c r="B84" t="s">
-        <v>242</v>
-      </c>
-      <c r="C84" t="s">
-        <v>243</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" t="s">
         <v>244</v>
       </c>
-      <c r="B85" t="s">
-        <v>245</v>
-      </c>
-      <c r="C85" t="s">
-        <v>246</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
+        <v>245</v>
+      </c>
+      <c r="B86" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" t="s">
         <v>247</v>
       </c>
-      <c r="B86" t="s">
-        <v>248</v>
-      </c>
-      <c r="C86" t="s">
-        <v>249</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" t="s">
         <v>250</v>
       </c>
-      <c r="B87" t="s">
-        <v>251</v>
-      </c>
-      <c r="C87" t="s">
-        <v>252</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
+        <v>251</v>
+      </c>
+      <c r="B88" t="s">
+        <v>252</v>
+      </c>
+      <c r="C88" t="s">
         <v>253</v>
       </c>
-      <c r="B88" t="s">
-        <v>254</v>
-      </c>
-      <c r="C88" t="s">
-        <v>255</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" t="s">
         <v>256</v>
       </c>
-      <c r="B89" t="s">
-        <v>257</v>
-      </c>
-      <c r="C89" t="s">
-        <v>258</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
+        <v>257</v>
+      </c>
+      <c r="B90" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" t="s">
         <v>259</v>
       </c>
-      <c r="B90" t="s">
-        <v>260</v>
-      </c>
-      <c r="C90" t="s">
-        <v>261</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="C91" t="s">
-        <v>263</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>264</v>
-      </c>
-      <c r="B92" t="s">
-        <v>265</v>
-      </c>
-      <c r="C92" t="s">
-        <v>266</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>267</v>
-      </c>
-      <c r="B93" t="s">
-        <v>268</v>
-      </c>
-      <c r="C93" t="s">
-        <v>269</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>270</v>
-      </c>
-      <c r="B94" t="s">
-        <v>271</v>
-      </c>
-      <c r="C94" t="s">
-        <v>272</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>273</v>
-      </c>
-      <c r="B95" t="s">
-        <v>274</v>
-      </c>
-      <c r="C95" t="s">
-        <v>275</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>276</v>
-      </c>
-      <c r="B96" t="s">
-        <v>277</v>
-      </c>
-      <c r="C96" t="s">
-        <v>278</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>279</v>
-      </c>
-      <c r="B97" t="s">
-        <v>280</v>
-      </c>
-      <c r="C97" t="s">
-        <v>281</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>282</v>
-      </c>
-      <c r="B98" t="s">
-        <v>283</v>
-      </c>
-      <c r="C98" t="s">
-        <v>284</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>285</v>
-      </c>
-      <c r="B99" t="s">
-        <v>286</v>
-      </c>
-      <c r="C99" t="s">
-        <v>287</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>288</v>
-      </c>
-      <c r="B100" t="s">
-        <v>289</v>
-      </c>
-      <c r="C100" t="s">
-        <v>290</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>291</v>
-      </c>
-      <c r="B101" t="s">
-        <v>292</v>
-      </c>
-      <c r="C101" t="s">
-        <v>293</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>288</v>
-      </c>
-      <c r="B102" t="s">
-        <v>292</v>
-      </c>
-      <c r="C102" t="s">
-        <v>293</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
